--- a/заказы/статистика филиалы/2023/10,23/26,10,23 ЗПФ/дв 26,10,23 бррсч зпф от филиала.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/26,10,23 ЗПФ/дв 26,10,23 бррсч зпф от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\26,10,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\26,10,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773F0ED8-3C95-48ED-A0DF-CDE07BA5313D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761A0B2E-029E-4A83-BD06-5B8F8D3BE8F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
   <si>
     <t>Период: 19.10.2023 - 26.10.2023</t>
   </si>
@@ -253,10 +253,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2632,7 +2636,7 @@
   <dimension ref="A1:AB42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -2675,7 +2679,9 @@
       <c r="C3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2747,7 +2753,9 @@
       <c r="C4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
